--- a/PartyMemberManager/ExcelTemplates/学生入党积极分子培训报名表模板.xlsx
+++ b/PartyMemberManager/ExcelTemplates/学生入党积极分子培训报名表模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\预备党员管理系统\杨鹏飞\导入格式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196D6AD0-7EF7-49FF-B094-EB7C6052EE26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06AEAEE-6322-4DCE-94CB-9F1D0A9ACEDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>202007050101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980.3.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -197,6 +205,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -506,7 +523,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -606,77 +623,187 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8">
+        <v>19800301</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="4">
+        <v>13993155332</v>
+      </c>
+      <c r="K3" s="8">
+        <v>20200820</v>
+      </c>
+      <c r="L3" s="5"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6">
+        <v>29281</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4">
+        <v>13993155332</v>
+      </c>
+      <c r="K4" s="6">
+        <v>44063</v>
+      </c>
+      <c r="L4" s="5"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4">
+        <v>13993155332</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="5"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="2"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1980.3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4">
+        <v>13993155332</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="2"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8">
+        <v>198003</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="4">
+        <v>13993155332</v>
+      </c>
+      <c r="K7" s="8">
+        <v>20200820</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>

--- a/PartyMemberManager/ExcelTemplates/学生入党积极分子培训报名表模板.xlsx
+++ b/PartyMemberManager/ExcelTemplates/学生入党积极分子培训报名表模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\预备党员管理系统\杨鹏飞\导入格式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文件\PartyMemberManager\PartyMemberManager\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06AEAEE-6322-4DCE-94CB-9F1D0A9ACEDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03CD4BD-8EB9-4FC6-A675-72123C19DAC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>序号</t>
   </si>
@@ -96,6 +96,50 @@
   </si>
   <si>
     <t>2020.08.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>202007050102</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>202007050103</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>202007050104</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>202007050105</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>202007050106</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王芳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵敏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李丽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李梅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王强</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +567,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -627,16 +671,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F3" s="8">
         <v>19800301</v>
@@ -664,16 +708,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6">
         <v>29281</v>
@@ -701,16 +745,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>20</v>
@@ -738,16 +782,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F6" s="10">
         <v>1980.3</v>
@@ -775,10 +819,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>18</v>

--- a/PartyMemberManager/ExcelTemplates/学生入党积极分子培训报名表模板.xlsx
+++ b/PartyMemberManager/ExcelTemplates/学生入党积极分子培训报名表模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文件\PartyMemberManager\PartyMemberManager\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03CD4BD-8EB9-4FC6-A675-72123C19DAC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BF385E-BF82-447A-97C0-CDF11589ECF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>序号</t>
   </si>
@@ -141,6 +141,12 @@
   <si>
     <t>女</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定入党积极分子时间</t>
+  </si>
+  <si>
+    <t>2020.08.20</t>
   </si>
 </sst>
 </file>
@@ -564,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -581,14 +587,14 @@
     <col min="8" max="8" width="13.1328125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="15.265625" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" customWidth="1"/>
-    <col min="12" max="12" width="18.59765625" customWidth="1"/>
-    <col min="14" max="14" width="10.265625" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9" customWidth="1"/>
+    <col min="11" max="12" width="11.265625" customWidth="1"/>
+    <col min="13" max="13" width="18.59765625" customWidth="1"/>
+    <col min="15" max="15" width="10.265625" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -623,13 +629,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -663,10 +672,13 @@
       <c r="K2" s="6">
         <v>44063</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="6">
+        <v>44064</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -700,10 +712,13 @@
       <c r="K3" s="8">
         <v>20200820</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="8">
+        <v>20200820</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -737,10 +752,13 @@
       <c r="K4" s="6">
         <v>44063</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="6">
+        <v>44063</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -774,10 +792,13 @@
       <c r="K5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -811,10 +832,13 @@
       <c r="K6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -848,10 +872,13 @@
       <c r="K7" s="8">
         <v>20200820</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="8">
+        <v>20200820</v>
+      </c>
       <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -865,8 +892,9 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -880,8 +908,9 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -895,8 +924,9 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -910,8 +940,9 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -923,10 +954,11 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -938,8 +970,9 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="2"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
